--- a/Data_preparation/datasets/final_data/INTEL_CORP.xlsx
+++ b/Data_preparation/datasets/final_data/INTEL_CORP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,117 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>WIX</t>
-  </si>
-  <si>
-    <t>NOC</t>
-  </si>
-  <si>
-    <t>CDNS</t>
-  </si>
-  <si>
-    <t>NOW</t>
-  </si>
-  <si>
-    <t>META</t>
-  </si>
-  <si>
-    <t>PEGA</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>CYBR</t>
-  </si>
-  <si>
-    <t>ORCL</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>EBAY</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>TSM</t>
-  </si>
-  <si>
-    <t>VRNT</t>
-  </si>
-  <si>
-    <t>TRI</t>
-  </si>
-  <si>
-    <t>OKTA</t>
-  </si>
-  <si>
-    <t>SNAP</t>
-  </si>
-  <si>
-    <t>MCHP</t>
-  </si>
-  <si>
-    <t>DOCU</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>ZBRA</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>CSCO</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>STNE</t>
-  </si>
-  <si>
-    <t>LSCC</t>
-  </si>
-  <si>
-    <t>DDOG</t>
-  </si>
-  <si>
-    <t>DXC</t>
-  </si>
-  <si>
-    <t>PRO</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>AMBA</t>
-  </si>
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>NTAP</t>
   </si>
 </sst>
 </file>
@@ -763,22 +652,22 @@
         <v>42091</v>
       </c>
       <c r="D2">
-        <v>19.17000007629395</v>
+        <v>24.05516451910286</v>
       </c>
       <c r="E2">
-        <v>19.46999931335449</v>
+        <v>25.15244483947754</v>
       </c>
       <c r="F2">
-        <v>21.10000038146973</v>
+        <v>25.53108509993121</v>
       </c>
       <c r="G2">
-        <v>18.63999938964844</v>
+        <v>23.52970760379803</v>
       </c>
       <c r="H2">
-        <v>55686229</v>
+        <v>4766000000</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>151552000000</v>
@@ -891,22 +780,22 @@
         <v>42182</v>
       </c>
       <c r="D3">
-        <v>135.1841268565159</v>
+        <v>23.73098190872396</v>
       </c>
       <c r="E3">
-        <v>146.5059204101562</v>
+        <v>22.53236961364746</v>
       </c>
       <c r="F3">
-        <v>149.4612783851101</v>
+        <v>24.06565982080904</v>
       </c>
       <c r="G3">
-        <v>133.8800511327204</v>
+        <v>21.49720384241088</v>
       </c>
       <c r="H3">
-        <v>143182982</v>
+        <v>4766000000</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>147158880000</v>
@@ -1010,22 +899,22 @@
         <v>42273</v>
       </c>
       <c r="D4">
-        <v>20.73999977111816</v>
+        <v>23.70838143474026</v>
       </c>
       <c r="E4">
-        <v>22.21999931335449</v>
+        <v>26.57285118103028</v>
       </c>
       <c r="F4">
-        <v>23.29999923706055</v>
+        <v>27.49104925146849</v>
       </c>
       <c r="G4">
-        <v>20.07999992370605</v>
+        <v>23.11979200690428</v>
       </c>
       <c r="H4">
-        <v>272490000</v>
+        <v>4766000000</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>136962740000</v>
@@ -1138,22 +1027,22 @@
         <v>42364</v>
       </c>
       <c r="D5">
-        <v>84.98000335693359</v>
+        <v>26.77584172232866</v>
       </c>
       <c r="E5">
-        <v>62.20999908447266</v>
+        <v>24.51554298400879</v>
       </c>
       <c r="F5">
-        <v>85.66999816894531</v>
+        <v>26.87858038148215</v>
       </c>
       <c r="G5">
-        <v>57.66999816894531</v>
+        <v>23.08507342200963</v>
       </c>
       <c r="H5">
-        <v>207519000</v>
+        <v>4766000000</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>165070620000</v>
@@ -1266,22 +1155,22 @@
         <v>42462</v>
       </c>
       <c r="D6">
-        <v>113.053060611574</v>
+        <v>25.72791577405147</v>
       </c>
       <c r="E6">
-        <v>116.8595962524414</v>
+        <v>24.14134788513184</v>
       </c>
       <c r="F6">
-        <v>120.0499278661556</v>
+        <v>25.88737045984817</v>
       </c>
       <c r="G6">
-        <v>105.6586426163339</v>
+        <v>23.99783897204932</v>
       </c>
       <c r="H6">
-        <v>2168962480</v>
+        <v>4766000000</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>153293800000</v>
@@ -1394,22 +1283,22 @@
         <v>42553</v>
       </c>
       <c r="D7">
-        <v>13.19996774679334</v>
+        <v>26.24768370565484</v>
       </c>
       <c r="E7">
-        <v>13.69067287445068</v>
+        <v>28.03291320800781</v>
       </c>
       <c r="F7">
-        <v>14.06851604737382</v>
+        <v>28.89336094330404</v>
       </c>
       <c r="G7">
-        <v>12.75833331909089</v>
+        <v>26.03860423766414</v>
       </c>
       <c r="H7">
-        <v>171080665</v>
+        <v>4766000000</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>154645500000</v>
@@ -1522,22 +1411,22 @@
         <v>42644</v>
       </c>
       <c r="D8">
-        <v>49.90532904401199</v>
+        <v>30.53841147815202</v>
       </c>
       <c r="E8">
-        <v>48.90722274780273</v>
+        <v>28.25349998474121</v>
       </c>
       <c r="F8">
-        <v>51.30454387702167</v>
+        <v>31.08128218691229</v>
       </c>
       <c r="G8">
-        <v>45.00807712847811</v>
+        <v>28.12385972592597</v>
       </c>
       <c r="H8">
-        <v>60498713</v>
+        <v>4766000000</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>178595250000</v>
@@ -1650,22 +1539,22 @@
         <v>42735</v>
       </c>
       <c r="D9">
-        <v>45.97999954223633</v>
+        <v>29.88794089172134</v>
       </c>
       <c r="E9">
-        <v>53.06000137329102</v>
+        <v>30.05938148498535</v>
       </c>
       <c r="F9">
-        <v>53.20000076293945</v>
+        <v>31.39009371566189</v>
       </c>
       <c r="G9">
-        <v>45.61000061035156</v>
+        <v>29.54505659092279</v>
       </c>
       <c r="H9">
-        <v>50476952</v>
+        <v>4766000000</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>171883530000</v>
@@ -1778,22 +1667,22 @@
         <v>42826</v>
       </c>
       <c r="D10">
-        <v>39.22581140273195</v>
+        <v>29.75597545178443</v>
       </c>
       <c r="E10">
-        <v>39.47163009643555</v>
+        <v>29.72308921813965</v>
       </c>
       <c r="F10">
-        <v>39.55064372641578</v>
+        <v>30.8330788003511</v>
       </c>
       <c r="G10">
-        <v>38.41811614637533</v>
+        <v>28.95020470218228</v>
       </c>
       <c r="H10">
-        <v>2850792605</v>
+        <v>4766000000</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>170538960000</v>
@@ -1906,22 +1795,22 @@
         <v>42917</v>
       </c>
       <c r="D11">
-        <v>102.0133622053498</v>
+        <v>27.75740442580016</v>
       </c>
       <c r="E11">
-        <v>96.09502410888672</v>
+        <v>29.38093757629395</v>
       </c>
       <c r="F11">
-        <v>103.6407392657914</v>
+        <v>29.7039865564943</v>
       </c>
       <c r="G11">
-        <v>95.4108561422248</v>
+        <v>27.52547247280213</v>
       </c>
       <c r="H11">
-        <v>931519242</v>
+        <v>4766000000</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>158881660000</v>
@@ -2034,22 +1923,22 @@
         <v>43008</v>
       </c>
       <c r="D12">
-        <v>34.39338093652559</v>
+        <v>31.81305736445479</v>
       </c>
       <c r="E12">
-        <v>33.61638259887695</v>
+        <v>37.96369552612305</v>
       </c>
       <c r="F12">
-        <v>35.08107037354011</v>
+        <v>38.22240408831388</v>
       </c>
       <c r="G12">
-        <v>32.32138309818511</v>
+        <v>31.7796777710977</v>
       </c>
       <c r="H12">
-        <v>457000000</v>
+        <v>4766000000</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>178937920000</v>
@@ -2162,22 +2051,22 @@
         <v>43099</v>
       </c>
       <c r="D13">
-        <v>8.751999855041504</v>
+        <v>38.93582612807229</v>
       </c>
       <c r="E13">
-        <v>9.208000183105469</v>
+        <v>40.41333770751953</v>
       </c>
       <c r="F13">
-        <v>9.28600025177002</v>
+        <v>42.68837114284218</v>
       </c>
       <c r="G13">
-        <v>8.696000099182129</v>
+        <v>35.62820977469026</v>
       </c>
       <c r="H13">
-        <v>766266033</v>
+        <v>4766000000</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>216028800000</v>
@@ -2278,22 +2167,22 @@
         <v>43190</v>
       </c>
       <c r="D14">
-        <v>35.97240561616163</v>
+        <v>43.68793204707458</v>
       </c>
       <c r="E14">
-        <v>31.91368293762207</v>
+        <v>43.62876892089844</v>
       </c>
       <c r="F14">
-        <v>36.75260893317965</v>
+        <v>47.15321790789084</v>
       </c>
       <c r="G14">
-        <v>31.53188151649943</v>
+        <v>39.96909269477364</v>
       </c>
       <c r="H14">
-        <v>5186523104</v>
+        <v>4766000000</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>243109440000</v>
@@ -2406,22 +2295,22 @@
         <v>43281</v>
       </c>
       <c r="D15">
-        <v>22.36372947692871</v>
+        <v>41.68739959083602</v>
       </c>
       <c r="E15">
-        <v>22.87315368652344</v>
+        <v>40.88833236694336</v>
       </c>
       <c r="F15">
-        <v>25.01273536682129</v>
+        <v>45.30869341160787</v>
       </c>
       <c r="G15">
-        <v>22.00713157653809</v>
+        <v>39.46871818086888</v>
       </c>
       <c r="H15">
-        <v>60308678</v>
+        <v>4766000000</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>231648600000</v>
@@ -2534,19 +2423,19 @@
         <v>43372</v>
       </c>
       <c r="D16">
-        <v>40.01662959399956</v>
+        <v>40.01662578662575</v>
       </c>
       <c r="E16">
-        <v>40.09360122680664</v>
+        <v>40.09359741210938</v>
       </c>
       <c r="F16">
-        <v>42.52247987457982</v>
+        <v>42.52247582878741</v>
       </c>
       <c r="G16">
-        <v>36.22792094161961</v>
+        <v>36.22791749472168</v>
       </c>
       <c r="H16">
-        <v>4757218036</v>
+        <v>4766000000</v>
       </c>
       <c r="I16" t="s">
         <v>42</v>
@@ -2662,22 +2551,22 @@
         <v>43463</v>
       </c>
       <c r="D17">
-        <v>42.82212632249508</v>
+        <v>39.55415811381391</v>
       </c>
       <c r="E17">
-        <v>46.75239944458008</v>
+        <v>40.5524787902832</v>
       </c>
       <c r="F17">
-        <v>46.95784665825049</v>
+        <v>43.06549494464316</v>
       </c>
       <c r="G17">
-        <v>41.83955640128374</v>
+        <v>38.20298280039454</v>
       </c>
       <c r="H17">
-        <v>450687724</v>
+        <v>4766000000</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>213367000000</v>
@@ -2778,22 +2667,22 @@
         <v>43554</v>
       </c>
       <c r="D18">
-        <v>83.62000274658203</v>
+        <v>47.06259577350248</v>
       </c>
       <c r="E18">
-        <v>104.0299987792969</v>
+        <v>44.20454406738281</v>
       </c>
       <c r="F18">
-        <v>104.9800033569336</v>
+        <v>51.60949726627182</v>
       </c>
       <c r="G18">
-        <v>82.03099822998047</v>
+        <v>44.0573093486784</v>
       </c>
       <c r="H18">
-        <v>168459019</v>
+        <v>4766000000</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>241488900000</v>
@@ -2906,22 +2795,22 @@
         <v>43645</v>
       </c>
       <c r="D19">
-        <v>14.72999954223633</v>
+        <v>42.95034468047347</v>
       </c>
       <c r="E19">
-        <v>16.79999923706055</v>
+        <v>44.04828262329102</v>
       </c>
       <c r="F19">
-        <v>18.36000061035156</v>
+        <v>46.61885570550808</v>
       </c>
       <c r="G19">
-        <v>13.96000003814697</v>
+        <v>41.01587895011813</v>
       </c>
       <c r="H19">
-        <v>1435682333</v>
+        <v>4766000000</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>214313990000</v>
@@ -3034,22 +2923,22 @@
         <v>43736</v>
       </c>
       <c r="D20">
-        <v>42.51583583355016</v>
+        <v>45.59139636543285</v>
       </c>
       <c r="E20">
-        <v>42.25590896606445</v>
+        <v>49.59171676635742</v>
       </c>
       <c r="F20">
-        <v>43.8557984628152</v>
+        <v>50.21457654769927</v>
       </c>
       <c r="G20">
-        <v>39.92553545962458</v>
+        <v>42.57360704235445</v>
       </c>
       <c r="H20">
-        <v>539679667</v>
+        <v>4766000000</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>224955400000</v>
@@ -3162,22 +3051,22 @@
         <v>43827</v>
       </c>
       <c r="D21">
-        <v>74.30999755859375</v>
+        <v>53.13721770987009</v>
       </c>
       <c r="E21">
-        <v>78.51000213623047</v>
+        <v>56.39213562011719</v>
       </c>
       <c r="F21">
-        <v>80.26000213623047</v>
+        <v>61.12014875792387</v>
       </c>
       <c r="G21">
-        <v>70.55000305175781</v>
+        <v>51.62001856014938</v>
       </c>
       <c r="H21">
-        <v>201104117</v>
+        <v>4766000000</v>
       </c>
       <c r="I21" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>261348000000</v>
@@ -3290,22 +3179,22 @@
         <v>43918</v>
       </c>
       <c r="D22">
-        <v>26.5</v>
+        <v>46.53788618324653</v>
       </c>
       <c r="E22">
-        <v>30.27000045776367</v>
+        <v>53.16842651367188</v>
       </c>
       <c r="F22">
-        <v>32</v>
+        <v>55.07426510996061</v>
       </c>
       <c r="G22">
-        <v>21.67000007629395</v>
+        <v>45.40324927837772</v>
       </c>
       <c r="H22">
-        <v>2085418676</v>
+        <v>4766000000</v>
       </c>
       <c r="I22" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>223986490000</v>
@@ -3418,22 +3307,22 @@
         <v>44009</v>
       </c>
       <c r="D23">
-        <v>256.4700012207031</v>
+        <v>53.40635776074765</v>
       </c>
       <c r="E23">
-        <v>280.75</v>
+        <v>42.54858016967773</v>
       </c>
       <c r="F23">
-        <v>287.8299865722656</v>
+        <v>55.20707329069204</v>
       </c>
       <c r="G23">
-        <v>250.9499969482422</v>
+        <v>41.87108488740854</v>
       </c>
       <c r="H23">
-        <v>50845151</v>
+        <v>4766000000</v>
       </c>
       <c r="I23" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>243455000000</v>
@@ -3546,22 +3435,22 @@
         <v>44100</v>
       </c>
       <c r="D24">
-        <v>142.1999969482422</v>
+        <v>47.02885664323092</v>
       </c>
       <c r="E24">
-        <v>135.75</v>
+        <v>39.74117660522461</v>
       </c>
       <c r="F24">
-        <v>158.7359924316406</v>
+        <v>50.46626928464421</v>
       </c>
       <c r="G24">
-        <v>133.8099975585938</v>
+        <v>39.13985509909842</v>
       </c>
       <c r="H24">
-        <v>158300823</v>
+        <v>4766000000</v>
       </c>
       <c r="I24" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>212394820000</v>
@@ -3674,22 +3563,22 @@
         <v>44191</v>
       </c>
       <c r="D25">
-        <v>29.91399955749512</v>
+        <v>45.10181718142243</v>
       </c>
       <c r="E25">
-        <v>28.95000076293945</v>
+        <v>50.18243789672852</v>
       </c>
       <c r="F25">
-        <v>31.0620002746582</v>
+        <v>57.81241287728636</v>
       </c>
       <c r="G25">
-        <v>27.46199989318848</v>
+        <v>44.59556527084455</v>
       </c>
       <c r="H25">
-        <v>766266033</v>
+        <v>4766000000</v>
       </c>
       <c r="I25" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>192892860000</v>
@@ -3802,22 +3691,22 @@
         <v>44282</v>
       </c>
       <c r="D26">
-        <v>529.9299926757812</v>
+        <v>58.86365876910687</v>
       </c>
       <c r="E26">
-        <v>513.469970703125</v>
+        <v>52.32426071166992</v>
       </c>
       <c r="F26">
-        <v>563.5599975585938</v>
+        <v>62.29251834532009</v>
       </c>
       <c r="G26">
-        <v>499</v>
+        <v>51.9058857328104</v>
       </c>
       <c r="H26">
-        <v>424926346</v>
+        <v>4766000000</v>
       </c>
       <c r="I26" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>263566810000</v>
@@ -3930,22 +3819,22 @@
         <v>44373</v>
       </c>
       <c r="D27">
-        <v>46.47724219552952</v>
+        <v>51.36537598092723</v>
       </c>
       <c r="E27">
-        <v>48.50979995727539</v>
+        <v>49.15995025634766</v>
       </c>
       <c r="F27">
-        <v>48.75511095753174</v>
+        <v>52.5824764060846</v>
       </c>
       <c r="G27">
-        <v>45.85521015250949</v>
+        <v>47.86963899824732</v>
       </c>
       <c r="H27">
-        <v>3953196953</v>
+        <v>4766000000</v>
       </c>
       <c r="I27" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>225764580000</v>
@@ -4058,22 +3947,22 @@
         <v>44464</v>
       </c>
       <c r="D28">
-        <v>138.916410444292</v>
+        <v>49.41493188918744</v>
       </c>
       <c r="E28">
-        <v>146.6503143310547</v>
+        <v>45.13199615478516</v>
       </c>
       <c r="F28">
-        <v>149.9494520691154</v>
+        <v>51.64389817603289</v>
       </c>
       <c r="G28">
-        <v>135.3627448332334</v>
+        <v>44.09119607598761</v>
       </c>
       <c r="H28">
-        <v>14840390000</v>
+        <v>4766000000</v>
       </c>
       <c r="I28" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>219970540000</v>
@@ -4186,22 +4075,22 @@
         <v>44555</v>
       </c>
       <c r="D29">
-        <v>17.05999946594238</v>
+        <v>47.90363929400464</v>
       </c>
       <c r="E29">
-        <v>15.57999992370606</v>
+        <v>45.27890777587891</v>
       </c>
       <c r="F29">
-        <v>19.65999984741211</v>
+        <v>52.19780602793664</v>
       </c>
       <c r="G29">
-        <v>13.14000034332275</v>
+        <v>42.94169210534397</v>
       </c>
       <c r="H29">
-        <v>250599325</v>
+        <v>4766000000</v>
       </c>
       <c r="I29" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>208677770000</v>
@@ -4314,22 +4203,22 @@
         <v>44653</v>
       </c>
       <c r="D30">
-        <v>421.9831085808795</v>
+        <v>46.56771153462336</v>
       </c>
       <c r="E30">
-        <v>415.1985778808594</v>
+        <v>40.73623275756836</v>
       </c>
       <c r="F30">
-        <v>450.9733274615733</v>
+        <v>46.6331284617015</v>
       </c>
       <c r="G30">
-        <v>408.5746965536123</v>
+        <v>40.65212477061715</v>
       </c>
       <c r="H30">
-        <v>143182982</v>
+        <v>4766000000</v>
       </c>
       <c r="I30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>195903920000</v>
@@ -4442,22 +4331,22 @@
         <v>44744</v>
       </c>
       <c r="D31">
-        <v>47.91999816894531</v>
+        <v>34.93576430551267</v>
       </c>
       <c r="E31">
-        <v>61.5</v>
+        <v>34.20106887817383</v>
       </c>
       <c r="F31">
-        <v>61.63000106811523</v>
+        <v>38.36434775727346</v>
       </c>
       <c r="G31">
-        <v>43.40999984741211</v>
+        <v>33.19321616877606</v>
       </c>
       <c r="H31">
-        <v>136895573</v>
+        <v>4766000000</v>
       </c>
       <c r="I31" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>148594260000</v>
@@ -4558,22 +4447,22 @@
         <v>44835</v>
       </c>
       <c r="D32">
-        <v>89.61000061035156</v>
+        <v>25.05109445904402</v>
       </c>
       <c r="E32">
-        <v>80.51000213623047</v>
+        <v>27.04909324645996</v>
       </c>
       <c r="F32">
-        <v>97.31400299072266</v>
+        <v>27.80072028154468</v>
       </c>
       <c r="G32">
-        <v>75.53500366210938</v>
+        <v>23.39561026795782</v>
       </c>
       <c r="H32">
-        <v>323270704</v>
+        <v>4766000000</v>
       </c>
       <c r="I32" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>105811620000</v>
@@ -4686,22 +4575,22 @@
         <v>44926</v>
       </c>
       <c r="D33">
-        <v>26.71999931335449</v>
+        <v>26.08371312247101</v>
       </c>
       <c r="E33">
-        <v>28.72999954223633</v>
+        <v>27.25049018859864</v>
       </c>
       <c r="F33">
-        <v>29.72999954223633</v>
+        <v>29.40082918909817</v>
       </c>
       <c r="G33">
-        <v>26.64999961853028</v>
+        <v>25.42800577929437</v>
       </c>
       <c r="H33">
-        <v>178998669</v>
+        <v>4766000000</v>
       </c>
       <c r="I33" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>109076610000</v>
@@ -4802,22 +4691,22 @@
         <v>45017</v>
       </c>
       <c r="D34">
-        <v>27.09000015258789</v>
+        <v>32.15034333521978</v>
       </c>
       <c r="E34">
-        <v>28.3700008392334</v>
+        <v>30.3154125213623</v>
       </c>
       <c r="F34">
-        <v>30.20000076293945</v>
+        <v>33.02876954243178</v>
       </c>
       <c r="G34">
-        <v>25.52000045776367</v>
+        <v>27.82654323192737</v>
       </c>
       <c r="H34">
-        <v>48253392</v>
+        <v>4766000000</v>
       </c>
       <c r="I34" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>135155790000</v>
@@ -4918,22 +4807,22 @@
         <v>45108</v>
       </c>
       <c r="D35">
-        <v>62.68228996223018</v>
+        <v>32.87001578170341</v>
       </c>
       <c r="E35">
-        <v>70.53733825683594</v>
+        <v>35.05546951293945</v>
       </c>
       <c r="F35">
-        <v>71.47598872124311</v>
+        <v>36.44710221863846</v>
       </c>
       <c r="G35">
-        <v>59.77740581347258</v>
+        <v>30.75316158285264</v>
       </c>
       <c r="H35">
-        <v>1122466035</v>
+        <v>4766000000</v>
       </c>
       <c r="I35" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>139478240000</v>
@@ -5034,22 +4923,22 @@
         <v>45199</v>
       </c>
       <c r="D36">
-        <v>62.6169871617784</v>
+        <v>35.02421911933925</v>
       </c>
       <c r="E36">
-        <v>64.67326354980469</v>
+        <v>35.89957809448242</v>
       </c>
       <c r="F36">
-        <v>66.63478202323152</v>
+        <v>36.60773535614693</v>
       </c>
       <c r="G36">
-        <v>60.75970456328059</v>
+        <v>31.62113672646627</v>
       </c>
       <c r="H36">
-        <v>212968277</v>
+        <v>4766000000</v>
       </c>
       <c r="I36" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>148883400000</v>
@@ -5162,22 +5051,22 @@
         <v>45290</v>
       </c>
       <c r="D37">
-        <v>1152.400024414062</v>
+        <v>48.54977989358274</v>
       </c>
       <c r="E37">
-        <v>1198.829956054688</v>
+        <v>42.51066207885742</v>
       </c>
       <c r="F37">
-        <v>1307.140014648438</v>
+        <v>49.63524092963385</v>
       </c>
       <c r="G37">
-        <v>1113.18994140625</v>
+        <v>41.80017630149584</v>
       </c>
       <c r="H37">
-        <v>24003656</v>
+        <v>4766000000</v>
       </c>
       <c r="I37" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>211854000000</v>
@@ -5278,22 +5167,22 @@
         <v>45381</v>
       </c>
       <c r="D38">
-        <v>104.6600036621094</v>
+        <v>43.8327771951091</v>
       </c>
       <c r="E38">
-        <v>92.98000335693359</v>
+        <v>30.15544509887696</v>
       </c>
       <c r="F38">
-        <v>105.0100021362305</v>
+        <v>44.94121392180273</v>
       </c>
       <c r="G38">
-        <v>90.66999816894533</v>
+        <v>30.10596202430713</v>
       </c>
       <c r="H38">
-        <v>168459019</v>
+        <v>4766000000</v>
       </c>
       <c r="I38" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>186750760000</v>
@@ -5394,22 +5283,22 @@
         <v>45472</v>
       </c>
       <c r="D39">
-        <v>53.97000122070312</v>
+        <v>30.71515496192047</v>
       </c>
       <c r="E39">
-        <v>52.63999938964844</v>
+        <v>30.54622650146484</v>
       </c>
       <c r="F39">
-        <v>65.87999725341797</v>
+        <v>36.9257573384868</v>
       </c>
       <c r="G39">
-        <v>50.29000091552734</v>
+        <v>29.82082859876</v>
       </c>
       <c r="H39">
-        <v>42689006</v>
+        <v>4766000000</v>
       </c>
       <c r="I39" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>131839290000</v>
@@ -5510,22 +5399,22 @@
         <v>45563</v>
       </c>
       <c r="D40">
-        <v>36.50313191135645</v>
+        <v>23.45999908447266</v>
       </c>
       <c r="E40">
-        <v>39.63111877441406</v>
+        <v>21.52000045776367</v>
       </c>
       <c r="F40">
-        <v>41.15769383693995</v>
+        <v>23.81999969482422</v>
       </c>
       <c r="G40">
-        <v>34.26814654717644</v>
+        <v>21.46999931335449</v>
       </c>
       <c r="H40">
-        <v>171080665</v>
+        <v>4766000000</v>
       </c>
       <c r="I40" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>102239160000</v>
@@ -5626,22 +5515,22 @@
         <v>45654</v>
       </c>
       <c r="D41">
-        <v>12.96000003814697</v>
+        <v>20.22999954223633</v>
       </c>
       <c r="E41">
-        <v>14.22000026702881</v>
+        <v>19.43000030517578</v>
       </c>
       <c r="F41">
-        <v>15.34500026702881</v>
+        <v>22.40999984741211</v>
       </c>
       <c r="G41">
-        <v>12.61999988555908</v>
+        <v>18.72999954223633</v>
       </c>
       <c r="H41">
-        <v>453568899</v>
+        <v>4766000000</v>
       </c>
       <c r="I41" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>87553900000</v>
@@ -5742,22 +5631,22 @@
         <v>45745</v>
       </c>
       <c r="D42">
-        <v>187.8600006103516</v>
+        <v>22.55999946594238</v>
       </c>
       <c r="E42">
-        <v>184.4199981689453</v>
+        <v>20.10000038146973</v>
       </c>
       <c r="F42">
-        <v>198.3399963378907</v>
+        <v>23.89999961853028</v>
       </c>
       <c r="G42">
-        <v>161.3800048828125</v>
+        <v>17.67000007629395</v>
       </c>
       <c r="H42">
-        <v>10664912097</v>
+        <v>4766000000</v>
       </c>
       <c r="I42" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>98334300000</v>
@@ -5858,22 +5747,22 @@
         <v>45836</v>
       </c>
       <c r="D43">
-        <v>105.0804770925983</v>
+        <v>22.32999992370605</v>
       </c>
       <c r="E43">
-        <v>103.1780242919922</v>
+        <v>19.79999923706055</v>
       </c>
       <c r="F43">
-        <v>109.3114367486601</v>
+        <v>24.04000091552734</v>
       </c>
       <c r="G43">
-        <v>101.4440230697358</v>
+        <v>19.65999984741211</v>
       </c>
       <c r="H43">
-        <v>199618386</v>
+        <v>4766000000</v>
       </c>
       <c r="I43" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>98973780000</v>
